--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_291__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_291__Reeval_Halton_Modell_1.2.xlsx
@@ -5990,34 +5990,34 @@
                   <c:v>97.32953643798828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5630819201469421</c:v>
+                  <c:v>0.5630877614021301</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>73.58423614501953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.2290138304233551</c:v>
+                  <c:v>-0.2289903610944748</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>96.42132568359375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.14234924316406</c:v>
+                  <c:v>97.14236450195312</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>94.79096221923828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.85822606086731</c:v>
+                  <c:v>-1.858231902122498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.25991058349609</c:v>
+                  <c:v>70.25990295410156</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>94.51161193847656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>96.75881195068359</c:v>
+                  <c:v>96.75882720947266</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>77.94314575195312</c:v>
@@ -6026,19 +6026,19 @@
                   <c:v>95.28550720214844</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.41207885742188</c:v>
+                  <c:v>97.41208648681641</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.580542087554932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.4073455929756165</c:v>
+                  <c:v>-0.4073514640331268</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>85.21099853515625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.233805298805237</c:v>
+                  <c:v>-1.233811140060425</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>67.36434173583984</c:v>
@@ -6050,76 +6050,76 @@
                   <c:v>66.5477294921875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5543288588523865</c:v>
+                  <c:v>0.5543347001075745</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97.71877288818359</c:v>
+                  <c:v>97.71878814697266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.239117503166199</c:v>
+                  <c:v>1.239111661911011</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.185621976852417</c:v>
+                  <c:v>3.185604572296143</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>14.48093605041504</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.61231422424316</c:v>
+                  <c:v>19.61230850219727</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.03544048592448235</c:v>
+                  <c:v>-0.03544635325670242</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>93.20436096191406</c:v>
+                  <c:v>93.20436859130859</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>95.93724822998047</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.43759918212891</c:v>
+                  <c:v>70.43761444091797</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.150624871253967</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7639093399047852</c:v>
+                  <c:v>0.7639240622520447</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.090274810791016</c:v>
+                  <c:v>8.090273857116699</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>77.64723205566406</c:v>
+                  <c:v>77.64724731445312</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.361401796340942</c:v>
+                  <c:v>3.361406326293945</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>79.26091003417969</c:v>
+                  <c:v>79.26091766357422</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.84168243408203</c:v>
+                  <c:v>40.84169387817383</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>95.64678955078125</c:v>
+                  <c:v>95.64679718017578</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.57450485229492</c:v>
+                  <c:v>46.57450103759766</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>72.20081329345703</c:v>
+                  <c:v>72.2008056640625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>96.91361999511719</c:v>
+                  <c:v>96.91365051269531</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>94.60675811767578</c:v>
+                  <c:v>94.60677337646484</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>40.14558029174805</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>81.05881500244141</c:v>
+                  <c:v>81.05882263183594</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>93.94591522216797</c:v>
@@ -6128,43 +6128,43 @@
                   <c:v>79.01052093505859</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.454992294311523</c:v>
+                  <c:v>5.454999923706055</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>76.19120025634766</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>97.15328979492188</c:v>
+                  <c:v>97.15327453613281</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>72.50869750976562</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0006335991201922297</c:v>
+                  <c:v>0.0006277324864640832</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.578349113464355</c:v>
+                  <c:v>8.578336715698242</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.980205535888672</c:v>
+                  <c:v>-1.980193853378296</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>95.34697723388672</c:v>
+                  <c:v>95.34699249267578</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>81.45886993408203</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>36.37181091308594</c:v>
+                  <c:v>36.3718147277832</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>61.02545166015625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>95.48738098144531</c:v>
+                  <c:v>95.48738861083984</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.02034557238221169</c:v>
+                  <c:v>-0.02035730518400669</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>88.09590911865234</c:v>
@@ -6176,13 +6176,13 @@
                   <c:v>87.91488647460938</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>94.12189483642578</c:v>
+                  <c:v>94.12187957763672</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>65.32750701904297</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.6550417542457581</c:v>
+                  <c:v>0.6550476551055908</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>93.78096771240234</c:v>
@@ -6191,31 +6191,31 @@
                   <c:v>75.17046356201172</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.2141007781028748</c:v>
+                  <c:v>-0.2141066491603851</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.355815410614014</c:v>
+                  <c:v>2.355821371078491</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>95.49652862548828</c:v>
+                  <c:v>95.49654388427734</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>95.85795593261719</c:v>
+                  <c:v>95.85794067382812</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>96.95060729980469</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>91.98463439941406</c:v>
+                  <c:v>91.98464202880859</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.422752737998962</c:v>
+                  <c:v>-1.422746896743774</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>69.70875549316406</c:v>
+                  <c:v>69.70874786376953</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>84.73717498779297</c:v>
+                  <c:v>84.73715972900391</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>96.25206756591797</c:v>
@@ -6233,37 +6233,37 @@
                   <c:v>96.96059417724609</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.7676376104354858</c:v>
+                  <c:v>0.7676317691802979</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>91.59901428222656</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45.4172477722168</c:v>
+                  <c:v>45.417236328125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>89.60710906982422</c:v>
+                  <c:v>89.60712432861328</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.228900790214539</c:v>
+                  <c:v>1.228894829750061</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>25.34836578369141</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>94.83094787597656</c:v>
+                  <c:v>94.8309326171875</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>78.51451110839844</c:v>
+                  <c:v>78.51450347900391</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-0.5964250564575195</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>56.0352897644043</c:v>
+                  <c:v>56.03528594970703</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>95.39724731445312</c:v>
+                  <c:v>95.39723205566406</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>-0.8685676455497742</c:v>
@@ -6272,16 +6272,16 @@
                   <c:v>93.78501892089844</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.02278745174408</c:v>
+                  <c:v>1.022781610488892</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>93.52300262451172</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>25.79269981384277</c:v>
+                  <c:v>25.7927131652832</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>19.8568115234375</c:v>
+                  <c:v>19.85682487487793</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>90.27069091796875</c:v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5630819201469421</v>
+        <v>0.5630877614021301</v>
       </c>
       <c r="G3">
         <v>122</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.2290138304233551</v>
+        <v>-0.2289903610944748</v>
       </c>
       <c r="G5">
         <v>122</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>97.14234924316406</v>
+        <v>97.14236450195312</v>
       </c>
       <c r="G7">
         <v>122</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-1.85822606086731</v>
+        <v>-1.858231902122498</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>70.25991058349609</v>
+        <v>70.25990295410156</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>96.75881195068359</v>
+        <v>96.75882720947266</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>97.41207885742188</v>
+        <v>97.41208648681641</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-0.4073455929756165</v>
+        <v>-0.4073514640331268</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-1.233805298805237</v>
+        <v>-1.233811140060425</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5543288588523865</v>
+        <v>0.5543347001075745</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>97.71877288818359</v>
+        <v>97.71878814697266</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.239117503166199</v>
+        <v>1.239111661911011</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3.185621976852417</v>
+        <v>3.185604572296143</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>19.61231422424316</v>
+        <v>19.61230850219727</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.03544048592448235</v>
+        <v>-0.03544635325670242</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>93.20436096191406</v>
+        <v>93.20436859130859</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>70.43759918212891</v>
+        <v>70.43761444091797</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.7639093399047852</v>
+        <v>0.7639240622520447</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>8.090274810791016</v>
+        <v>8.090273857116699</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>77.64723205566406</v>
+        <v>77.64724731445312</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>3.361401796340942</v>
+        <v>3.361406326293945</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>79.26091003417969</v>
+        <v>79.26091766357422</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>40.84168243408203</v>
+        <v>40.84169387817383</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>95.64678955078125</v>
+        <v>95.64679718017578</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>46.57450485229492</v>
+        <v>46.57450103759766</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>72.20081329345703</v>
+        <v>72.2008056640625</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>96.66849999999999</v>
       </c>
       <c r="F43">
-        <v>96.91361999511719</v>
+        <v>96.91365051269531</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>92.40940000000001</v>
       </c>
       <c r="F44">
-        <v>94.60675811767578</v>
+        <v>94.60677337646484</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>81.05881500244141</v>
+        <v>81.05882263183594</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>5.454992294311523</v>
+        <v>5.454999923706055</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>97.15328979492188</v>
+        <v>97.15327453613281</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.0006335991201922297</v>
+        <v>0.0006277324864640832</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>8.578349113464355</v>
+        <v>8.578336715698242</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-1.980205535888672</v>
+        <v>-1.980193853378296</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>95.34697723388672</v>
+        <v>95.34699249267578</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>36.37181091308594</v>
+        <v>36.3718147277832</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>95.48738098144531</v>
+        <v>95.48738861083984</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-0.02034557238221169</v>
+        <v>-0.02035730518400669</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>94.12189483642578</v>
+        <v>94.12187957763672</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.6550417542457581</v>
+        <v>0.6550476551055908</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-0.2141007781028748</v>
+        <v>-0.2141066491603851</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>2.355815410614014</v>
+        <v>2.355821371078491</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>95.49652862548828</v>
+        <v>95.49654388427734</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>95.85795593261719</v>
+        <v>95.85794067382812</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>91.98463439941406</v>
+        <v>91.98464202880859</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-1.422752737998962</v>
+        <v>-1.422746896743774</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>84.64230000000001</v>
       </c>
       <c r="F77">
-        <v>69.70875549316406</v>
+        <v>69.70874786376953</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>84.73717498779297</v>
+        <v>84.73715972900391</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.7676376104354858</v>
+        <v>0.7676317691802979</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>45.4172477722168</v>
+        <v>45.417236328125</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>94.4075</v>
       </c>
       <c r="F87">
-        <v>89.60710906982422</v>
+        <v>89.60712432861328</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.228900790214539</v>
+        <v>1.228894829750061</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>94.83094787597656</v>
+        <v>94.8309326171875</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>78.51451110839844</v>
+        <v>78.51450347900391</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>56.0352897644043</v>
+        <v>56.03528594970703</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>95.39724731445312</v>
+        <v>95.39723205566406</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.02278745174408</v>
+        <v>1.022781610488892</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>25.79269981384277</v>
+        <v>25.7927131652832</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>19.8568115234375</v>
+        <v>19.85682487487793</v>
       </c>
     </row>
     <row r="101" spans="1:6">
